--- a/Quality_Scoring_Functions/Quality_Functions/MolProbity/Data/All_Data/molprobity_TF/Binding_Molprobity_TF_7xfg.xlsx
+++ b/Quality_Scoring_Functions/Quality_Functions/MolProbity/Data/All_Data/molprobity_TF/Binding_Molprobity_TF_7xfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neginmanshour/Desktop/new_evaluation/molprobity/molprobity_TF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neginmanshour/Desktop/PpEv/Quality_Scoring_Functions/Quality_Functions/MolProbity/Data/All_Data/molprobity_TF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28E9FF0-9B95-9943-946C-3FF3D54C549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7EE0CB-397A-EE43-A3AD-30E753778B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33280" yWindow="1200" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9018" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9019" uniqueCount="2252">
   <si>
     <t>bind_protein_pre</t>
   </si>
@@ -6773,6 +6773,9 @@
   </si>
   <si>
     <t>ranked_801.pdb_clean.pdb</t>
+  </si>
+  <si>
+    <t>5.38</t>
   </si>
 </sst>
 </file>
@@ -7139,7 +7142,7 @@
   <dimension ref="A1:K1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7186,26 +7189,29 @@
       <c r="C2">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>2251</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>488</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
